--- a/Saved_file/EM002/2026_10/sap_data.xlsx
+++ b/Saved_file/EM002/2026_10/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST4584</t>
+          <t>CUST1660</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21472726</v>
+        <v>21858630</v>
       </c>
       <c r="E2" t="n">
-        <v>2363412</v>
+        <v>4078262</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST1647</t>
+          <t>CUST9334</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21162994</v>
+        <v>9105913</v>
       </c>
       <c r="E3" t="n">
-        <v>3190264</v>
+        <v>1525184</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-10-17</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST8417</t>
+          <t>CUST5679</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18731673</v>
+        <v>21711671</v>
       </c>
       <c r="E4" t="n">
-        <v>2859863</v>
+        <v>3335720</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST7296</t>
+          <t>CUST4812</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14153232</v>
+        <v>22037864</v>
       </c>
       <c r="E5" t="n">
-        <v>1657934</v>
+        <v>2972265</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST9246</t>
+          <t>CUST7057</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20560731</v>
+        <v>16577913</v>
       </c>
       <c r="E6" t="n">
-        <v>2632996</v>
+        <v>3029568</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST1647</t>
+          <t>CUST6177</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13839542</v>
+        <v>8925936</v>
       </c>
       <c r="E7" t="n">
-        <v>2223809</v>
+        <v>905884</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST9246</t>
+          <t>CUST8701</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18383831</v>
+        <v>19320165</v>
       </c>
       <c r="E8" t="n">
-        <v>1882471</v>
+        <v>3591315</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -853,12 +853,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-10-29</t>
+          <t>2026-10-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST7744</t>
+          <t>CUST3041</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10466995</v>
+        <v>12183304</v>
       </c>
       <c r="E9" t="n">
-        <v>1280473</v>
+        <v>2333851</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -907,12 +907,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST9091</t>
+          <t>CUST7057</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24046204</v>
+        <v>18463276</v>
       </c>
       <c r="E10" t="n">
-        <v>4604007</v>
+        <v>3687915</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST9246</t>
+          <t>CUST9334</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16874669</v>
+        <v>22657138</v>
       </c>
       <c r="E11" t="n">
-        <v>1896566</v>
+        <v>2399466</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST1307</t>
+          <t>CUST1211</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10316271</v>
+        <v>8376642</v>
       </c>
       <c r="E12" t="n">
-        <v>1767666</v>
+        <v>1405395</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1091,20 +1091,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST7143</t>
+          <t>CUST1221</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19254778</v>
+        <v>8640955</v>
       </c>
       <c r="E13" t="n">
-        <v>3271242</v>
+        <v>1331984</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST7143</t>
+          <t>CUST3471</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19622053</v>
+        <v>11942189</v>
       </c>
       <c r="E14" t="n">
-        <v>2569726</v>
+        <v>1534032</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST2030</t>
+          <t>CUST2042</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18902471</v>
+        <v>21722298</v>
       </c>
       <c r="E15" t="n">
-        <v>2646851</v>
+        <v>3311189</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST2030</t>
+          <t>CUST5056</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13526826</v>
+        <v>19030636</v>
       </c>
       <c r="E16" t="n">
-        <v>2052092</v>
+        <v>2466259</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST2489</t>
+          <t>CUST1258</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10665294</v>
+        <v>22922522</v>
       </c>
       <c r="E17" t="n">
-        <v>1252509</v>
+        <v>4386978</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST3893</t>
+          <t>CUST3567</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>19515733</v>
+        <v>13844439</v>
       </c>
       <c r="E18" t="n">
-        <v>2038692</v>
+        <v>1895224</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-10-26</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST7296</t>
+          <t>CUST9650</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17597811</v>
+        <v>15161983</v>
       </c>
       <c r="E19" t="n">
-        <v>1889836</v>
+        <v>2324028</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST6179</t>
+          <t>CUST8168</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12846174</v>
+        <v>18355842</v>
       </c>
       <c r="E20" t="n">
-        <v>2429258</v>
+        <v>3328219</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST9312</t>
+          <t>CUST5559</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11371648</v>
+        <v>20081519</v>
       </c>
       <c r="E21" t="n">
-        <v>1352692</v>
+        <v>2299722</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST4620</t>
+          <t>CUST7057</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8305797</v>
+        <v>22226386</v>
       </c>
       <c r="E22" t="n">
-        <v>1630474</v>
+        <v>3634131</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST1647</t>
+          <t>CUST3567</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10238585</v>
+        <v>21200019</v>
       </c>
       <c r="E23" t="n">
-        <v>1296954</v>
+        <v>4144028</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-10-31</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST1732</t>
+          <t>CUST1861</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23985908</v>
+        <v>21479377</v>
       </c>
       <c r="E24" t="n">
-        <v>3823667</v>
+        <v>3710170</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST7469</t>
+          <t>CUST5559</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24576153</v>
+        <v>22647019</v>
       </c>
       <c r="E25" t="n">
-        <v>3541517</v>
+        <v>2656962</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST8556</t>
+          <t>CUST3243</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8015474</v>
+        <v>8809836</v>
       </c>
       <c r="E26" t="n">
-        <v>1496369</v>
+        <v>959767</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST7143</t>
+          <t>CUST8212</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18576231</v>
+        <v>18562791</v>
       </c>
       <c r="E27" t="n">
-        <v>2286535</v>
+        <v>3278451</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST1647</t>
+          <t>CUST5970</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10283455</v>
+        <v>11009823</v>
       </c>
       <c r="E28" t="n">
-        <v>1216152</v>
+        <v>2073142</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST9246</t>
+          <t>CUST9650</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21111045</v>
+        <v>18389786</v>
       </c>
       <c r="E29" t="n">
-        <v>3756200</v>
+        <v>2385405</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST4705</t>
+          <t>CUST1211</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15763456</v>
+        <v>9474477</v>
       </c>
       <c r="E30" t="n">
-        <v>1797216</v>
+        <v>1315874</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-10-01</t>
+          <t>2026-10-18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST6613</t>
+          <t>CUST1639</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21138462</v>
+        <v>12708975</v>
       </c>
       <c r="E31" t="n">
-        <v>3860224</v>
+        <v>2061003</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST4932</t>
+          <t>CUST8512</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18999214</v>
+        <v>15306005</v>
       </c>
       <c r="E32" t="n">
-        <v>2819902</v>
+        <v>2861429</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST1250</t>
+          <t>CUST3204</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>16425818</v>
+        <v>23741675</v>
       </c>
       <c r="E33" t="n">
-        <v>2457761</v>
+        <v>2850616</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST4085</t>
+          <t>CUST1221</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20087452</v>
+        <v>12008751</v>
       </c>
       <c r="E34" t="n">
-        <v>3870978</v>
+        <v>1729749</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-23</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST1732</t>
+          <t>CUST2042</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23258138</v>
+        <v>9016906</v>
       </c>
       <c r="E35" t="n">
-        <v>4277549</v>
+        <v>981967</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST8951</t>
+          <t>CUST2973</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>19011459</v>
+        <v>24628842</v>
       </c>
       <c r="E36" t="n">
-        <v>2144529</v>
+        <v>3109679</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2365,12 +2365,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST3901</t>
+          <t>CUST5945</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>16307195</v>
+        <v>10254441</v>
       </c>
       <c r="E37" t="n">
-        <v>2353381</v>
+        <v>2044732</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-10-31</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST3590</t>
+          <t>CUST4451</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>20097125</v>
+        <v>18655894</v>
       </c>
       <c r="E38" t="n">
-        <v>2461223</v>
+        <v>1912175</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST4233</t>
+          <t>CUST4105</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>24730207</v>
+        <v>20489168</v>
       </c>
       <c r="E39" t="n">
-        <v>4138129</v>
+        <v>3803774</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-10-18</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST3893</t>
+          <t>CUST3339</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8744379</v>
+        <v>11049742</v>
       </c>
       <c r="E40" t="n">
-        <v>1411051</v>
+        <v>2033929</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-30</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST4584</t>
+          <t>CUST3567</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15926949</v>
+        <v>9568814</v>
       </c>
       <c r="E41" t="n">
-        <v>1776862</v>
+        <v>1050097</v>
       </c>
       <c r="F41" t="n">
         <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2630,12 +2630,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-30</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST3893</t>
+          <t>CUST2961</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10100438</v>
+        <v>10010061</v>
       </c>
       <c r="E42" t="n">
-        <v>1262068</v>
+        <v>1425821</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST6190</t>
+          <t>CUST1417</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9905484</v>
+        <v>16139259</v>
       </c>
       <c r="E43" t="n">
-        <v>1744688</v>
+        <v>2260570</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2743,12 +2743,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-10-03</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST2489</t>
+          <t>CUST3339</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>16432090</v>
+        <v>9312352</v>
       </c>
       <c r="E44" t="n">
-        <v>3154961</v>
+        <v>992913</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST7469</t>
+          <t>CUST4105</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>15603792</v>
+        <v>21214357</v>
       </c>
       <c r="E45" t="n">
-        <v>3067209</v>
+        <v>3737347</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-29</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST7744</t>
+          <t>CUST1211</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>17121089</v>
+        <v>21082253</v>
       </c>
       <c r="E46" t="n">
-        <v>3164939</v>
+        <v>3421951</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2905,12 +2905,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST4932</t>
+          <t>CUST4451</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>24753512</v>
+        <v>15031202</v>
       </c>
       <c r="E47" t="n">
-        <v>3272462</v>
+        <v>1839804</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-10-29</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST9720</t>
+          <t>CUST9132</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20656965</v>
+        <v>13899248</v>
       </c>
       <c r="E48" t="n">
-        <v>3347851</v>
+        <v>1525556</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-10-17</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST3590</t>
+          <t>CUST2042</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10847850</v>
+        <v>14782287</v>
       </c>
       <c r="E49" t="n">
-        <v>1178215</v>
+        <v>2947589</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST4816</t>
+          <t>CUST5173</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>19014546</v>
+        <v>15005116</v>
       </c>
       <c r="E50" t="n">
-        <v>3350962</v>
+        <v>1734332</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-10-18</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST1732</t>
+          <t>CUST3041</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8181081</v>
+        <v>23739506</v>
       </c>
       <c r="E51" t="n">
-        <v>1075253</v>
+        <v>3795101</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST2352</t>
+          <t>CUST2961</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23303977</v>
+        <v>15973765</v>
       </c>
       <c r="E52" t="n">
-        <v>3206747</v>
+        <v>1999278</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST8951</t>
+          <t>CUST2973</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>12248162</v>
+        <v>23545149</v>
       </c>
       <c r="E53" t="n">
-        <v>1237956</v>
+        <v>2787516</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-02</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST8789</t>
+          <t>CUST8338</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>11782400</v>
+        <v>15241885</v>
       </c>
       <c r="E54" t="n">
-        <v>2101775</v>
+        <v>2011535</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3337,12 +3337,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST9720</t>
+          <t>CUST4253</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>24987735</v>
+        <v>22953830</v>
       </c>
       <c r="E55" t="n">
-        <v>2913741</v>
+        <v>3921927</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-10-17</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST3901</t>
+          <t>CUST1211</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>11247278</v>
+        <v>21133120</v>
       </c>
       <c r="E56" t="n">
-        <v>1979187</v>
+        <v>3932739</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST6613</t>
+          <t>CUST1221</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9289339</v>
+        <v>12805114</v>
       </c>
       <c r="E57" t="n">
-        <v>1362056</v>
+        <v>2288943</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST9091</t>
+          <t>CUST4105</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>23720985</v>
+        <v>10109043</v>
       </c>
       <c r="E58" t="n">
-        <v>4400206</v>
+        <v>1582333</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-10-21</t>
+          <t>2026-10-25</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST9781</t>
+          <t>CUST6177</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>14435210</v>
+        <v>21954609</v>
       </c>
       <c r="E59" t="n">
-        <v>2254973</v>
+        <v>2364682</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST8417</t>
+          <t>CUST8564</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>21709650</v>
+        <v>14022872</v>
       </c>
       <c r="E60" t="n">
-        <v>2785974</v>
+        <v>1582914</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST8417</t>
+          <t>CUST8564</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>22757049</v>
+        <v>22395107</v>
       </c>
       <c r="E61" t="n">
-        <v>4450231</v>
+        <v>3145287</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.9</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>5556437</v>
+        <v>3770537</v>
       </c>
       <c r="E2" t="n">
-        <v>598009</v>
+        <v>452771</v>
       </c>
     </row>
     <row r="3">
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>61.5</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>10426319</v>
+        <v>3007108</v>
       </c>
       <c r="E3" t="n">
-        <v>1088819</v>
+        <v>653840</v>
       </c>
     </row>
     <row r="4">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50.6</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4418457</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>496186</v>
       </c>
     </row>
     <row r="6">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72</v>
+        <v>66.8</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4949379</v>
+        <v>14298827</v>
       </c>
       <c r="E6" t="n">
-        <v>1218863</v>
+        <v>3753694</v>
       </c>
     </row>
     <row r="7">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.8</v>
+        <v>71.8</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>5978158</v>
+        <v>3940934</v>
       </c>
       <c r="E7" t="n">
-        <v>1124538</v>
+        <v>632076</v>
       </c>
     </row>
     <row r="8">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.7</v>
+        <v>61</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>5385953</v>
+        <v>6358118</v>
       </c>
       <c r="E8" t="n">
-        <v>984916</v>
+        <v>1586230</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.1</v>
+        <v>61.6</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>4890323</v>
+        <v>6364561</v>
       </c>
       <c r="E9" t="n">
-        <v>1140402</v>
+        <v>1390913</v>
       </c>
     </row>
     <row r="10">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.3</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>12630842</v>
+        <v>7034562</v>
       </c>
       <c r="E10" t="n">
-        <v>2140609</v>
+        <v>962075</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1315029</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>326610</v>
       </c>
     </row>
     <row r="12">
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>18740475</v>
+        <v>10837274</v>
       </c>
       <c r="E13" t="n">
-        <v>2093692</v>
+        <v>2249634</v>
       </c>
     </row>
     <row r="14">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.5</v>
+        <v>60.9</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>13702375</v>
+        <v>6872048</v>
       </c>
       <c r="E14" t="n">
-        <v>1420991</v>
+        <v>1090722</v>
       </c>
     </row>
     <row r="15">
@@ -4024,16 +4024,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.8</v>
+        <v>60.5</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4699998</v>
+        <v>7957819</v>
       </c>
       <c r="E15" t="n">
-        <v>1374049</v>
+        <v>2349143</v>
       </c>
     </row>
     <row r="16">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>4533690</v>
+        <v>6345015</v>
       </c>
       <c r="E16" t="n">
-        <v>900450</v>
+        <v>756446</v>
       </c>
     </row>
     <row r="17">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7507153</v>
+        <v>3225341</v>
       </c>
       <c r="E17" t="n">
-        <v>1741019</v>
+        <v>525865</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4684668</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1030586</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4655755</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>906180</v>
       </c>
     </row>
     <row r="20">
@@ -4119,16 +4119,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>8202710</v>
+        <v>9426997</v>
       </c>
       <c r="E20" t="n">
-        <v>2160727</v>
+        <v>1132829</v>
       </c>
     </row>
     <row r="21">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.8</v>
+        <v>78.8</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4059898</v>
+        <v>15131541</v>
       </c>
       <c r="E21" t="n">
-        <v>1200540</v>
+        <v>1706173</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.09999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>3759726</v>
+        <v>5168200</v>
       </c>
       <c r="E22" t="n">
-        <v>670122</v>
+        <v>1020417</v>
       </c>
     </row>
     <row r="23">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.7</v>
+        <v>77.8</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>9083435</v>
+        <v>9174494</v>
       </c>
       <c r="E23" t="n">
-        <v>967384</v>
+        <v>1697610</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>14810630</v>
+        <v>9602985</v>
       </c>
       <c r="E24" t="n">
-        <v>3075898</v>
+        <v>1921319</v>
       </c>
     </row>
     <row r="25">
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>64.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>3717102</v>
+        <v>2877550</v>
       </c>
       <c r="E27" t="n">
-        <v>566747</v>
+        <v>790961</v>
       </c>
     </row>
     <row r="28">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.5</v>
+        <v>64.7</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>2510392</v>
+        <v>2305599</v>
       </c>
       <c r="E28" t="n">
-        <v>389735</v>
+        <v>552302</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79</v>
+        <v>63.9</v>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>4801388</v>
+        <v>6993284</v>
       </c>
       <c r="E29" t="n">
-        <v>1223516</v>
+        <v>1195947</v>
       </c>
     </row>
     <row r="30">
@@ -4309,16 +4309,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>7732419</v>
+        <v>7284686</v>
       </c>
       <c r="E30" t="n">
-        <v>1460678</v>
+        <v>1621821</v>
       </c>
     </row>
     <row r="31">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>4127827</v>
+        <v>3323325</v>
       </c>
       <c r="E31" t="n">
-        <v>824869</v>
+        <v>840829</v>
       </c>
     </row>
     <row r="32">
@@ -4347,16 +4347,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>73.7</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5185976</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1206125</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
